--- a/NformTester/NformTester/Keywordscripts/600.30.20.80_AddInfoLinksInALogicalGroupUnderViews.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.80_AddInfoLinksInALogicalGroupUnderViews.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7426" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7426" uniqueCount="848">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3748,78 +3748,71 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for Rack PDU"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Emerson protocol"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test view</t>
+  </si>
+  <si>
+    <t>New Group</t>
+  </si>
+  <si>
+    <t>Logical Groups</t>
+  </si>
+  <si>
+    <t>Logical_group_tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available_modules_tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expand</t>
+  </si>
+  <si>
+    <t>ConfiguredGroups_L</t>
+  </si>
+  <si>
+    <t>NewGroup_L</t>
+  </si>
+  <si>
+    <t>InfoLinks</t>
+  </si>
+  <si>
+    <t>NewGroupLink</t>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalGroups_tree</t>
+  </si>
+  <si>
     <t>$Velocity_device_1$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_Name$</t>
-  </si>
-  <si>
-    <t>$Velocity_SingleAuto_Name$</t>
+    <t>$NAME_Velocity_1$</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert MPX/MPH - RPC1000"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Description for Rack PDU"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Emerson protocol"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test view</t>
-  </si>
-  <si>
-    <t>New Group</t>
-  </si>
-  <si>
-    <t>Logical Groups</t>
-  </si>
-  <si>
-    <t>$Velocity_SingleAuto_Name$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logical_group_tree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Available_modules_tree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expand</t>
-  </si>
-  <si>
-    <t>ConfiguredGroups_L</t>
-  </si>
-  <si>
-    <t>NewGroup_L</t>
-  </si>
-  <si>
-    <t>InfoLinks</t>
-  </si>
-  <si>
-    <t>NewGroupLink</t>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogicalGroups_tree</t>
   </si>
 </sst>
 </file>
@@ -4018,7 +4011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4093,6 +4086,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4831,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5078,19 +5072,19 @@
         <v>812</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>833</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>834</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="11"/>
@@ -5314,8 +5308,8 @@
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>831</v>
+      <c r="H16" s="30" t="s">
+        <v>847</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -6189,7 +6183,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
@@ -6243,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
@@ -6256,13 +6250,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>637</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>56</v>
@@ -6271,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
@@ -6290,7 +6284,7 @@
         <v>637</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>56</v>
@@ -6298,8 +6292,8 @@
       <c r="H54" s="27">
         <v>1</v>
       </c>
-      <c r="I54" s="27" t="s">
-        <v>838</v>
+      <c r="I54" s="30" t="s">
+        <v>847</v>
       </c>
       <c r="J54" s="27">
         <f>K55-40</f>
@@ -6317,7 +6311,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>637</v>
@@ -6332,7 +6326,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
@@ -6345,7 +6339,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>637</v>
@@ -6359,8 +6353,8 @@
       <c r="H56" s="27">
         <v>1</v>
       </c>
-      <c r="I56" s="27" t="s">
-        <v>830</v>
+      <c r="I56" s="30" t="s">
+        <v>847</v>
       </c>
       <c r="J56" s="27">
         <v>-40</v>
@@ -6543,7 +6537,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>2</v>
@@ -6567,10 +6561,10 @@
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -6591,7 +6585,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>2</v>
@@ -6615,10 +6609,10 @@
         <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -6639,7 +6633,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>2</v>
@@ -6663,7 +6657,7 @@
         <v>19</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>2</v>
@@ -6687,7 +6681,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>5</v>
@@ -6711,16 +6705,16 @@
         <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>821</v>
